--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2232539.681751104</v>
+        <v>-2235116.003232345</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74.47326816522828</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>62.45439117602507</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>71.86633202712484</v>
+        <v>3.462804694297063</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>49.87943354460216</v>
+        <v>382.1494052335406</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -950,19 +950,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>93.47758125341757</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>56.97227283338376</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>342.8171881768184</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>181.2290365055927</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1291,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>77.06300304438639</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>157.8583419335918</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>27.02919805175974</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012299</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>1.839588425940237</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="15">
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>72.80978492054801</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>247.9252424950647</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>21.90286287505374</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>173.8476477102227</v>
       </c>
     </row>
     <row r="20">
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>86.90598908794038</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2287,10 +2287,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>30.40549967255511</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>149.8873540667203</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>102.1557845699813</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T31" t="n">
         <v>193.1208028352485</v>
@@ -3007,16 +3007,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="32">
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445521</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3481,16 +3481,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1959.379186075721</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4331,7 +4331,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4367,13 +4367,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y2" t="n">
-        <v>2034.604709474941</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="3">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.5121164321834</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>66.5121164321834</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
         <v>66.5121164321834</v>
@@ -4486,52 +4486,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>209.9456031467894</v>
+        <v>282.3220529184993</v>
       </c>
       <c r="L4" t="n">
-        <v>365.6554470691466</v>
+        <v>438.0318968408565</v>
       </c>
       <c r="M4" t="n">
-        <v>709.8124926686955</v>
+        <v>605.4643781400544</v>
       </c>
       <c r="N4" t="n">
-        <v>881.121329698543</v>
+        <v>776.7732151699018</v>
       </c>
       <c r="O4" t="n">
-        <v>1019.039678916733</v>
+        <v>914.6915643880916</v>
       </c>
       <c r="P4" t="n">
-        <v>1117.990681669491</v>
+        <v>1055.037596261254</v>
       </c>
       <c r="Q4" t="n">
-        <v>1132.647892413771</v>
+        <v>1132.647892413769</v>
       </c>
       <c r="R4" t="n">
-        <v>1060.055637840918</v>
+        <v>1129.150109894277</v>
       </c>
       <c r="S4" t="n">
-        <v>1060.055637840918</v>
+        <v>1129.150109894277</v>
       </c>
       <c r="T4" t="n">
-        <v>838.2890224104441</v>
+        <v>1129.150109894277</v>
       </c>
       <c r="U4" t="n">
-        <v>549.1861555360877</v>
+        <v>1129.150109894277</v>
       </c>
       <c r="V4" t="n">
-        <v>294.5016673302007</v>
+        <v>1129.150109894277</v>
       </c>
       <c r="W4" t="n">
-        <v>294.5016673302007</v>
+        <v>1129.150109894277</v>
       </c>
       <c r="X4" t="n">
-        <v>66.5121164321834</v>
+        <v>901.1605589962596</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.5121164321834</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.299101484276</v>
+        <v>1565.440264581601</v>
       </c>
       <c r="C5" t="n">
-        <v>1257.336584543864</v>
+        <v>1565.440264581601</v>
       </c>
       <c r="D5" t="n">
-        <v>1257.336584543864</v>
+        <v>1207.174565974851</v>
       </c>
       <c r="E5" t="n">
-        <v>871.5483319456198</v>
+        <v>1207.174565974851</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,7 +4562,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912088</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524209</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2403.038273524209</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y5" t="n">
-        <v>2012.898941548397</v>
+        <v>1952.040104645723</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>684.4520072430315</v>
+        <v>477.7831921883597</v>
       </c>
       <c r="C7" t="n">
-        <v>515.5158243151246</v>
+        <v>308.8470092604529</v>
       </c>
       <c r="D7" t="n">
-        <v>515.5158243151246</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>367.6027307327315</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>367.6027307327315</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971289</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>866.1004720732712</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y7" t="n">
-        <v>866.1004720732712</v>
+        <v>659.4316570185995</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>1624.638712032431</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3032.255520302333</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>2701.192632958763</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>2701.192632958763</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X8" t="n">
-        <v>2327.726874697683</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y8" t="n">
-        <v>2327.726874697683</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>753.0765981364621</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C10" t="n">
-        <v>675.2351809199101</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.507193008249</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.517642110232</v>
+        <v>554.5033994003252</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.7250629667018</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.665004989558</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400699</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>344.917417812163</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578602</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2445.104913453049</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>2225.50344847599</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611857</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138397</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703096</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5276,28 +5276,28 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5358,19 +5358,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1366.386875345992</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>552.8412329032295</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C16" t="n">
-        <v>552.8412329032295</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W16" t="n">
-        <v>1183.271827775017</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X16" t="n">
-        <v>955.2822768769994</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y16" t="n">
-        <v>734.4896977334693</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="17">
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>198.027470314254</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>198.027470314254</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5716,7 +5716,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="20">
@@ -5741,16 +5741,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5759,13 +5759,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>954.2476448606602</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C22" t="n">
-        <v>785.3114619327533</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
         <v>697.5276345711974</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2349.204753900789</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2129.60328892373</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1840.528062267928</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1585.843574062041</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1296.426404025081</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y22" t="n">
-        <v>1135.8961096909</v>
+        <v>847.6442739835331</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6069,25 +6069,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>139.234765840794</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>634.5603720565526</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C31" t="n">
         <v>782.5512955656814</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.0944824954151</v>
@@ -6625,7 +6625,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,7 +6695,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,16 +6889,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,25 +6923,25 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580113</v>
@@ -7090,16 +7090,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7132,10 +7132,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,58 +7306,58 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954155</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380734</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,31 +7567,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954153</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7649,7 +7649,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7728,19 +7728,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8134,16 +8134,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -8152,10 +8152,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>41.81316072768064</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.753983217918472</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>308.2605734982523</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>319.4759788962367</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22705,16 +22705,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -22750,19 +22750,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>17.06582064292249</v>
+        <v>85.46934797575027</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664526</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>179.1866975757044</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.1376433238289</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>144.5956654067402</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>38.59775584152635</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.3918499711701</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>44.73700564187206</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>61.70948393027197</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>150.6207863290895</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>29.94462611521701</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>-7.551737141186073e-13</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49733.50450522575</v>
+        <v>49733.50450522574</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="D2" t="n">
         <v>61578.13273982125</v>
@@ -26323,37 +26323,37 @@
         <v>60535.99497675045</v>
       </c>
       <c r="F2" t="n">
+        <v>60535.99497675047</v>
+      </c>
+      <c r="G2" t="n">
         <v>60535.99497675044</v>
-      </c>
-      <c r="G2" t="n">
-        <v>60535.99497675047</v>
       </c>
       <c r="H2" t="n">
         <v>60535.99497675046</v>
       </c>
       <c r="I2" t="n">
-        <v>60535.99497675045</v>
+        <v>60535.99497675047</v>
       </c>
       <c r="J2" t="n">
-        <v>60535.99497675046</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="K2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982119</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982123</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="N2" t="n">
+        <v>61578.13273982125</v>
+      </c>
+      <c r="O2" t="n">
+        <v>61578.13273982125</v>
+      </c>
+      <c r="P2" t="n">
         <v>61578.13273982126</v>
-      </c>
-      <c r="O2" t="n">
-        <v>61578.13273982128</v>
-      </c>
-      <c r="P2" t="n">
-        <v>61578.13273982125</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363181</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363184</v>
+        <v>19427.71799363182</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3287.485941553428</v>
+        <v>3287.485941553392</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184276</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
         <v>21597.66737493622</v>
       </c>
       <c r="L4" t="n">
+        <v>21597.66737493625</v>
+      </c>
+      <c r="M4" t="n">
         <v>21597.66737493622</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21597.66737493624</v>
       </c>
       <c r="N4" t="n">
         <v>21597.66737493621</v>
       </c>
       <c r="O4" t="n">
-        <v>21597.6673749362</v>
+        <v>21597.66737493622</v>
       </c>
       <c r="P4" t="n">
-        <v>21597.66737493622</v>
+        <v>21597.66737493621</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1390232.667725314</v>
+        <v>-1390627.488666467</v>
       </c>
       <c r="C6" t="n">
         <v>-139149.6507047661</v>
@@ -26528,40 +26528,40 @@
         <v>-139149.6507047661</v>
       </c>
       <c r="E6" t="n">
-        <v>-379605.8047663546</v>
+        <v>-379640.5426917904</v>
       </c>
       <c r="F6" t="n">
-        <v>-54193.34295899941</v>
+        <v>-54228.08088443513</v>
       </c>
       <c r="G6" t="n">
-        <v>-54193.34295899943</v>
+        <v>-54228.0808844351</v>
       </c>
       <c r="H6" t="n">
-        <v>-54193.3429589994</v>
+        <v>-54228.08088443509</v>
       </c>
       <c r="I6" t="n">
-        <v>-54193.34295899942</v>
+        <v>-54228.08088443508</v>
       </c>
       <c r="J6" t="n">
-        <v>-271724.5453562769</v>
+        <v>-271759.2832817126</v>
       </c>
       <c r="K6" t="n">
-        <v>-82611.36848266215</v>
+        <v>-82611.36848266219</v>
       </c>
       <c r="L6" t="n">
-        <v>-63183.65048903038</v>
+        <v>-63183.65048903045</v>
       </c>
       <c r="M6" t="n">
         <v>-148238.6784245422</v>
       </c>
       <c r="N6" t="n">
-        <v>-63183.65048903035</v>
+        <v>-63183.65048903036</v>
       </c>
       <c r="O6" t="n">
-        <v>-63183.65048903032</v>
+        <v>-63183.65048903038</v>
       </c>
       <c r="P6" t="n">
-        <v>-82611.3684826622</v>
+        <v>-82611.36848266216</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="O2" t="n">
-        <v>24.28464749203968</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26790,10 +26790,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920398</v>
+        <v>24.28464749203978</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>356.9966121971093</v>
+        <v>24.72664050817082</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>55.13789176479479</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>109.0535354256445</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>22.45570359418917</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>69.76613545330929</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>90.18381805424144</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>60.726311418503</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="32">
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O12" t="n">
-        <v>690.2058188111474</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
-        <v>677.7372574190224</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,10 +32324,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>251.886104915025</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>332.1692388321076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,19 +32789,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>181.9330708814852</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>489.8124929257571</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,7 +33266,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>196.3041720119</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33664,7 +33664,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33737,25 +33737,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>338.1920576279222</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>195.7502366106279</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34369,10 +34369,10 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34448,22 +34448,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>349.3304751113902</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34854,16 +34854,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
         <v>173.0392293230783</v>
@@ -34872,10 +34872,10 @@
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>141.76366855875</v>
       </c>
       <c r="Q4" t="n">
-        <v>14.80526337806067</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O12" t="n">
-        <v>547.609574366703</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
-        <v>535.141012974578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,10 +35972,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>120.5443928316917</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,13 +36206,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>189.5729943876631</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>44.09163190712619</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>347.2162484813126</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,7 +36914,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>57.74979223202579</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37385,25 +37385,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>196.0580237059039</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>61.77582919629761</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38017,10 +38017,10 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38096,22 +38096,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>211.4890361370312</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
